--- a/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
+++ b/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="0" windowWidth="15580" windowHeight="14240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主観" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>操作のわかりやすさ</t>
   </si>
@@ -371,6 +371,20 @@
     <t>文字数</t>
     <rPh sb="0" eb="3">
       <t>モz</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -576,8 +590,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -795,7 +815,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="179">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -882,6 +902,9 @@
     <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -969,6 +992,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1231,11 +1257,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126745736"/>
-        <c:axId val="2118661096"/>
+        <c:axId val="2119804152"/>
+        <c:axId val="-2125086280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126745736"/>
+        <c:axId val="2119804152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,7 +1280,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118661096"/>
+        <c:crossAx val="-2125086280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1262,7 +1288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118661096"/>
+        <c:axId val="-2125086280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,6 +1311,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1301,13 +1328,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126745736"/>
+        <c:crossAx val="2119804152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1504,11 +1532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123737944"/>
-        <c:axId val="-2123747368"/>
+        <c:axId val="2036743000"/>
+        <c:axId val="2083289848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123737944"/>
+        <c:axId val="2036743000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +1581,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123747368"/>
+        <c:crossAx val="2083289848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1561,7 +1589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123747368"/>
+        <c:axId val="2083289848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1621,7 +1649,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123737944"/>
+        <c:crossAx val="2036743000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1750,8 +1778,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123911112"/>
-        <c:axId val="-2123702904"/>
+        <c:axId val="2101290056"/>
+        <c:axId val="-2129380584"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1807,11 +1835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102243480"/>
-        <c:axId val="-2123604360"/>
+        <c:axId val="-2121828344"/>
+        <c:axId val="-2127444248"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="-2123911112"/>
+        <c:axId val="2101290056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,6 +1861,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1848,7 +1877,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123702904"/>
+        <c:crossAx val="-2129380584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1856,7 +1885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123702904"/>
+        <c:axId val="-2129380584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,6 +1920,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -1907,13 +1937,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123911112"/>
+        <c:crossAx val="2101290056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2123604360"/>
+        <c:axId val="-2127444248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,12 +1989,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102243480"/>
+        <c:crossAx val="-2121828344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102243480"/>
+        <c:axId val="-2121828344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +2003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123604360"/>
+        <c:crossAx val="-2127444248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2136,8 +2166,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-60"/>
-        <c:axId val="2120543160"/>
-        <c:axId val="-2127099848"/>
+        <c:axId val="-2128491144"/>
+        <c:axId val="2118487832"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2265,11 +2295,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2101456264"/>
-        <c:axId val="-2127997336"/>
+        <c:axId val="2120325976"/>
+        <c:axId val="2120802456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120543160"/>
+        <c:axId val="-2128491144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2344,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127099848"/>
+        <c:crossAx val="2118487832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2322,7 +2352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127099848"/>
+        <c:axId val="2118487832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,6 +2374,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2360,12 +2391,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120543160"/>
+        <c:crossAx val="-2128491144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127997336"/>
+        <c:axId val="2120802456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2401,6 +2432,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -2417,13 +2449,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101456264"/>
+        <c:crossAx val="2120325976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2101456264"/>
+        <c:axId val="2120325976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127997336"/>
+        <c:crossAx val="2120802456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,6 +2482,7 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2546,10 +2579,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>2.311404895857191</c:v>
+                    <c:v>0.0852280616322491</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.444970854844437</c:v>
+                    <c:v>0.24936361898894</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2561,10 +2594,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>2.311404895857191</c:v>
+                    <c:v>0.0852280616322491</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.444970854844437</c:v>
+                    <c:v>0.24936361898894</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2591,10 +2624,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18.94444444444444</c:v>
+                  <c:v>0.59364662023253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.26212121212121</c:v>
+                  <c:v>1.295061883692121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2609,11 +2642,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2124593176"/>
-        <c:axId val="2119852424"/>
+        <c:axId val="2118271928"/>
+        <c:axId val="2118265864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2124593176"/>
+        <c:axId val="2118271928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,7 +2665,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119852424"/>
+        <c:crossAx val="2118265864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2640,7 +2673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119852424"/>
+        <c:axId val="2118265864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2655,6 +2688,10 @@
                 <a:pPr>
                   <a:defRPr sz="1200"/>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+                  <a:t>一文字あたりの</a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
                   <a:t>入力時間</a:t>
@@ -2675,6 +2712,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2691,7 +2729,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124593176"/>
+        <c:crossAx val="2118271928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2860,11 +2898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2122518664"/>
-        <c:axId val="2080725736"/>
+        <c:axId val="-2126189480"/>
+        <c:axId val="-2125674968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2122518664"/>
+        <c:axId val="-2126189480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,7 +2921,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080725736"/>
+        <c:crossAx val="-2125674968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2891,7 +2929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080725736"/>
+        <c:axId val="-2125674968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2968,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122518664"/>
+        <c:crossAx val="-2126189480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3083,11 +3121,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119504568"/>
-        <c:axId val="-2123258600"/>
+        <c:axId val="-2127198712"/>
+        <c:axId val="-2121731656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119504568"/>
+        <c:axId val="-2127198712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3132,7 +3170,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123258600"/>
+        <c:crossAx val="-2121731656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3140,7 +3178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123258600"/>
+        <c:axId val="-2121731656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3237,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119504568"/>
+        <c:crossAx val="-2127198712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3425,11 +3463,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2104846072"/>
-        <c:axId val="-2121045032"/>
+        <c:axId val="2121167912"/>
+        <c:axId val="-2126784248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2104846072"/>
+        <c:axId val="2121167912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3448,7 +3486,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121045032"/>
+        <c:crossAx val="-2126784248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3456,7 +3494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121045032"/>
+        <c:axId val="-2126784248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3532,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104846072"/>
+        <c:crossAx val="2121167912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3677,11 +3715,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2121704968"/>
-        <c:axId val="2093366232"/>
+        <c:axId val="2046405832"/>
+        <c:axId val="-2122197672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2121704968"/>
+        <c:axId val="2046405832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3700,7 +3738,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093366232"/>
+        <c:crossAx val="-2122197672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3708,7 +3746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093366232"/>
+        <c:axId val="-2122197672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3784,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121704968"/>
+        <c:crossAx val="2046405832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3802,16 +3840,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4665,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="O12" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4675,7 +4713,7 @@
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11">
+    <row r="1" spans="3:13">
       <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
@@ -4687,7 +4725,7 @@
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="3:11">
+    <row r="2" spans="3:13">
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -4707,7 +4745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:11">
+    <row r="3" spans="3:13">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -4733,7 +4771,28 @@
         <v>16.773636363636363</v>
       </c>
     </row>
-    <row r="5" spans="3:11">
+    <row r="4" spans="3:13">
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="13">
+        <f>AVERAGE(D3:F3)</f>
+        <v>11.574444444444444</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="H4" s="13">
+        <f>AVERAGE(H3:J3)</f>
+        <v>15.234823232323231</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="L4">
+        <f>FTEST(D3:F3, H3:J3)</f>
+        <v>0.55650960131908644</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4741,8 +4800,12 @@
         <f>TTEST(D3:F3, H3:J3, 2, 1)</f>
         <v>0.16337185921165487</v>
       </c>
-    </row>
-    <row r="7" spans="3:11">
+      <c r="L5">
+        <f>TTEST(D3:F3, H3:J3, 2, 2)</f>
+        <v>0.16343563491889954</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
       <c r="D7" t="s">
         <v>25</v>
       </c>
@@ -4762,7 +4825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:13">
       <c r="D8" t="s">
         <v>3</v>
       </c>
@@ -4782,7 +4845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:13">
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -4812,13 +4875,36 @@
         <f>AVERAGE(H9:J9)</f>
         <v>1.2950618836921208</v>
       </c>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="C11" t="s">
+      <c r="L9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="3:11">
+      <c r="M9">
+        <f>FTEST(D9:F9, H9:J9)</f>
+        <v>0.20919329041819962</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="13">
+        <f>AVERAGE(D9:F9)</f>
+        <v>0.5936466202325299</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="13">
+        <f>AVERAGE(H9:J9)</f>
+        <v>1.2950618836921208</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="M10" s="8">
+        <f>TTEST(D9:F9, H9:J9, 2,2)</f>
+        <v>9.9547637344366384E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -4871,10 +4957,10 @@
         <v>57</v>
       </c>
       <c r="K18">
-        <v>18.944444444444443</v>
+        <v>0.5936466202325299</v>
       </c>
       <c r="L18" s="9">
-        <v>12.26212121212121</v>
+        <v>1.2950618836921208</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
@@ -4905,12 +4991,12 @@
         <v>58</v>
       </c>
       <c r="K19">
-        <f>STDEV(D20:F20)</f>
-        <v>2.3114048958571911</v>
+        <f>STDEV(D9:F9)</f>
+        <v>8.5228061632249122E-2</v>
       </c>
       <c r="L19">
-        <f>STDEV(G20:I20)</f>
-        <v>1.4449708548444367</v>
+        <f>STDEV(H9:J9)</f>
+        <v>0.24936361898893966</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5083,7 +5169,7 @@
       <c r="H47" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="D18:F18"/>
@@ -5091,6 +5177,10 @@
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G21:I21"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="H10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5108,7 +5198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
+++ b/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="主観" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>操作のわかりやすさ</t>
   </si>
@@ -78,13 +78,6 @@
     <t>検定</t>
     <rPh sb="0" eb="2">
       <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有意差あり</t>
-    <rPh sb="0" eb="3">
-      <t>ユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -388,12 +381,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>T検定</t>
+    <rPh sb="1" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見やすさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,6 +451,14 @@
       <sz val="12"/>
       <color theme="5"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -590,7 +602,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -770,8 +782,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -814,8 +828,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="181">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -905,6 +920,7 @@
     <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -995,6 +1011,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1105,7 +1122,7 @@
                   <c:v>構成のわかりやすさ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>見易さ</c:v>
+                  <c:v>見やすさ</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>反応のよさ</c:v>
@@ -1218,7 +1235,7 @@
                   <c:v>構成のわかりやすさ</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>見易さ</c:v>
+                  <c:v>見やすさ</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>反応のよさ</c:v>
@@ -1257,11 +1274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119804152"/>
-        <c:axId val="-2125086280"/>
+        <c:axId val="2072215160"/>
+        <c:axId val="2072211544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119804152"/>
+        <c:axId val="2072215160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1297,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125086280"/>
+        <c:crossAx val="2072211544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1288,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125086280"/>
+        <c:axId val="2072211544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1345,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119804152"/>
+        <c:crossAx val="2072215160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1532,11 +1549,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2036743000"/>
-        <c:axId val="2083289848"/>
+        <c:axId val="2107876392"/>
+        <c:axId val="2107865800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2036743000"/>
+        <c:axId val="2107876392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,7 +1598,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083289848"/>
+        <c:crossAx val="2107865800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1589,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083289848"/>
+        <c:axId val="2107865800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1649,7 +1666,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2036743000"/>
+        <c:crossAx val="2107876392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1778,8 +1795,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2101290056"/>
-        <c:axId val="-2129380584"/>
+        <c:axId val="2107790424"/>
+        <c:axId val="2107785352"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1835,11 +1852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121828344"/>
-        <c:axId val="-2127444248"/>
+        <c:axId val="2107773720"/>
+        <c:axId val="2107779256"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="2101290056"/>
+        <c:axId val="2107790424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1878,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1877,7 +1893,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129380584"/>
+        <c:crossAx val="2107785352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1885,7 +1901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129380584"/>
+        <c:axId val="2107785352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,7 +1936,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -1937,13 +1952,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101290056"/>
+        <c:crossAx val="2107790424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127444248"/>
+        <c:axId val="2107779256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,12 +2004,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121828344"/>
+        <c:crossAx val="2107773720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2121828344"/>
+        <c:axId val="2107773720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127444248"/>
+        <c:crossAx val="2107779256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2166,8 +2181,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-60"/>
-        <c:axId val="-2128491144"/>
-        <c:axId val="2118487832"/>
+        <c:axId val="2107735432"/>
+        <c:axId val="2107729736"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2295,11 +2310,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120325976"/>
-        <c:axId val="2120802456"/>
+        <c:axId val="2107718312"/>
+        <c:axId val="2107724264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128491144"/>
+        <c:axId val="2107735432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2359,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118487832"/>
+        <c:crossAx val="2107729736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2352,7 +2367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118487832"/>
+        <c:axId val="2107729736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +2389,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2391,12 +2405,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128491144"/>
+        <c:crossAx val="2107735432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120802456"/>
+        <c:axId val="2107724264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2432,7 +2446,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -2449,13 +2462,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120325976"/>
+        <c:crossAx val="2107718312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2120325976"/>
+        <c:axId val="2107718312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,7 +2477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120802456"/>
+        <c:crossAx val="2107724264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2482,7 +2495,6 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2642,11 +2654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2118271928"/>
-        <c:axId val="2118265864"/>
+        <c:axId val="2107692456"/>
+        <c:axId val="2107689432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2118271928"/>
+        <c:axId val="2107692456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,7 +2677,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118265864"/>
+        <c:crossAx val="2107689432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118265864"/>
+        <c:axId val="2107689432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,11 +2702,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
-                  <a:t>一文字あたりの</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
-                  <a:t>入力時間</a:t>
+                  <a:t>一文字あたりの入力時間</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
@@ -2712,7 +2720,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2729,7 +2736,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118271928"/>
+        <c:crossAx val="2107692456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2898,11 +2905,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126189480"/>
-        <c:axId val="-2125674968"/>
+        <c:axId val="2107640600"/>
+        <c:axId val="2110112808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126189480"/>
+        <c:axId val="2107640600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,7 +2928,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125674968"/>
+        <c:crossAx val="2110112808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2929,7 +2936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125674968"/>
+        <c:axId val="2110112808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2951,7 +2958,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2968,7 +2974,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126189480"/>
+        <c:crossAx val="2107640600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3121,11 +3127,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127198712"/>
-        <c:axId val="-2121731656"/>
+        <c:axId val="2110153256"/>
+        <c:axId val="2110158712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127198712"/>
+        <c:axId val="2110153256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,7 +3176,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121731656"/>
+        <c:crossAx val="2110158712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3178,7 +3184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121731656"/>
+        <c:axId val="2110158712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3237,7 +3243,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127198712"/>
+        <c:crossAx val="2110153256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3463,11 +3469,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2121167912"/>
-        <c:axId val="-2126784248"/>
+        <c:axId val="2110195304"/>
+        <c:axId val="2110198184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121167912"/>
+        <c:axId val="2110195304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,7 +3492,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126784248"/>
+        <c:crossAx val="2110198184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3494,7 +3500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126784248"/>
+        <c:axId val="2110198184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,6 +3522,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3532,13 +3539,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121167912"/>
+        <c:crossAx val="2110195304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3715,11 +3723,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2046405832"/>
-        <c:axId val="-2122197672"/>
+        <c:axId val="2062459096"/>
+        <c:axId val="2062462104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046405832"/>
+        <c:axId val="2062459096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,7 +3746,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122197672"/>
+        <c:crossAx val="2062462104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3746,7 +3754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122197672"/>
+        <c:axId val="2062462104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,6 +3776,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3784,7 +3793,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046405832"/>
+        <c:crossAx val="2062459096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3793,6 +3802,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3812,9 +3826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4061,15 +4075,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4415,8 +4429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4549,37 +4563,37 @@
       </c>
     </row>
     <row r="8" spans="3:12">
-      <c r="D8" t="s">
-        <v>12</v>
+      <c r="E8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="3:12">
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f>TTEST(D3:F3, H3:J3, 2, 1)</f>
         <v>0.18350341907227463</v>
       </c>
       <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="3:12">
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10">
-        <f>TTEST(D4:F4, H4:J4, 2, 1)</f>
+      <c r="E10">
+        <f t="shared" ref="E10:E12" si="0">TTEST(D4:F4, H4:J4, 2, 1)</f>
         <v>0.31400565942996472</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -4606,12 +4620,9 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11">
-        <f>TTEST(D5:F5, H5:J5, 2, 1)</f>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
         <v>9.8524570233256663E-3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1</v>
@@ -4629,7 +4640,7 @@
         <v>5.333333333333333</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L13" si="0">STDEV(H4:J4)</f>
+        <f t="shared" ref="L11:L13" si="1">STDEV(H4:J4)</f>
         <v>0.33333333333333348</v>
       </c>
     </row>
@@ -4637,19 +4648,19 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
-        <f>TTEST(D6:F6, H6:J6, 2, 1)</f>
+      <c r="E12">
+        <f t="shared" si="0"/>
         <v>0.22540333075851626</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="I12">
         <f>AVERAGE(D5:F5)</f>
         <v>6.1111111111111116</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J13" si="1">STDEV(D5:F5)</f>
+        <f t="shared" ref="J12:J13" si="2">STDEV(D5:F5)</f>
         <v>0.7698003589194935</v>
       </c>
       <c r="K12">
@@ -4657,7 +4668,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57735026918962584</v>
       </c>
     </row>
@@ -4666,11 +4677,11 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13" si="2">AVERAGE(D6:F6)</f>
+        <f t="shared" ref="I13" si="3">AVERAGE(D6:F6)</f>
         <v>6.666666666666667</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.57735026918962584</v>
       </c>
       <c r="K13">
@@ -4678,7 +4689,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333348</v>
       </c>
     </row>
@@ -4703,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4747,7 +4758,7 @@
     </row>
     <row r="3" spans="3:13">
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>15.19</v>
@@ -4759,7 +4770,7 @@
         <v>10.188333333333334</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>15.905000000000001</v>
@@ -4773,7 +4784,7 @@
     </row>
     <row r="4" spans="3:13">
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="13">
         <f>AVERAGE(D3:F3)</f>
@@ -4794,7 +4805,7 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <f>TTEST(D3:F3, H3:J3, 2, 1)</f>
@@ -4807,22 +4818,22 @@
     </row>
     <row r="7" spans="3:13">
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:13">
@@ -4847,7 +4858,7 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>0.69057356881046428</v>
@@ -4885,7 +4896,7 @@
     </row>
     <row r="10" spans="3:13">
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="13">
         <f>AVERAGE(D9:F9)</f>
@@ -4906,7 +4917,7 @@
     </row>
     <row r="12" spans="3:13">
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <f>TTEST(D9:F9, H9:J9, 2, 1)</f>
@@ -4915,33 +4926,33 @@
     </row>
     <row r="17" spans="1:14">
       <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>39</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>40</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>41</v>
       </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
       <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" t="s">
         <v>55</v>
-      </c>
-      <c r="L17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>2</v>
@@ -4949,12 +4960,12 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18">
         <v>0.5936466202325299</v>
@@ -4967,7 +4978,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
@@ -4979,16 +4990,16 @@
         <v>7</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="J19" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19">
         <f>STDEV(D9:F9)</f>
@@ -5001,7 +5012,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="5">
         <v>21.5</v>
@@ -5024,19 +5035,19 @@
     </row>
     <row r="21" spans="1:14">
       <c r="D21" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="15">
         <f>AVERAGE(D20:F20)</f>
@@ -5082,20 +5093,20 @@
         <v>1.3200336007160932E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="8:12">
       <c r="I35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
         <v>49</v>
-      </c>
-      <c r="L35" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="8:12">
       <c r="H36" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36" s="5">
         <v>21.5</v>
@@ -5106,7 +5117,7 @@
     </row>
     <row r="37" spans="8:12">
       <c r="H37" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I37" s="5">
         <v>17</v>
@@ -5117,7 +5128,7 @@
     </row>
     <row r="38" spans="8:12">
       <c r="H38" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" s="5">
         <v>18.333333333333332</v>
@@ -5128,7 +5139,7 @@
     </row>
     <row r="39" spans="8:12">
       <c r="H39" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" s="5">
         <v>13.4</v>
@@ -5139,7 +5150,7 @@
     </row>
     <row r="40" spans="8:12">
       <c r="H40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" s="5">
         <v>12.75</v>
@@ -5150,7 +5161,7 @@
     </row>
     <row r="41" spans="8:12">
       <c r="H41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" s="5">
         <v>10.636363636363637</v>
@@ -5244,7 +5255,7 @@
         <v>1.3200336007160932E-2</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -5269,12 +5280,12 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="F5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -5296,15 +5307,15 @@
     <row r="9" spans="2:11">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5">
         <v>18.944444444444443</v>
@@ -5315,7 +5326,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5">
         <f>STDEV(B4:D4)</f>
@@ -5351,8 +5362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5411,7 +5422,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="13">
         <f>AVERAGE(B4:D4)</f>
@@ -5434,22 +5445,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5485,15 +5496,15 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="5">
         <v>4.666666666666667</v>
@@ -5504,7 +5515,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="5">
         <f>STDEV(B4:D4)</f>
@@ -5569,7 +5580,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>197</v>
@@ -5592,7 +5603,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>15.19</v>

--- a/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
+++ b/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主観" sheetId="2" r:id="rId1"/>
@@ -807,6 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,7 +829,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="181">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1274,11 +1274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2072215160"/>
-        <c:axId val="2072211544"/>
+        <c:axId val="-2070069832"/>
+        <c:axId val="2125358568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072215160"/>
+        <c:axId val="-2070069832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1297,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072211544"/>
+        <c:crossAx val="2125358568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072211544"/>
+        <c:axId val="2125358568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1345,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072215160"/>
+        <c:crossAx val="-2070069832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,11 +1549,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107876392"/>
-        <c:axId val="2107865800"/>
+        <c:axId val="-2098868824"/>
+        <c:axId val="-2066327688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107876392"/>
+        <c:axId val="-2098868824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1598,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107865800"/>
+        <c:crossAx val="-2066327688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107865800"/>
+        <c:axId val="-2066327688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1666,7 +1666,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107876392"/>
+        <c:crossAx val="-2098868824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1795,8 +1795,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107790424"/>
-        <c:axId val="2107785352"/>
+        <c:axId val="-2098935384"/>
+        <c:axId val="-2098187080"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1852,11 +1852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107773720"/>
-        <c:axId val="2107779256"/>
+        <c:axId val="-2065020744"/>
+        <c:axId val="2128910696"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="2107790424"/>
+        <c:axId val="-2098935384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,6 +1878,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1893,7 +1894,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107785352"/>
+        <c:crossAx val="-2098187080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1901,7 +1902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107785352"/>
+        <c:axId val="-2098187080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,6 +1937,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -1952,13 +1954,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107790424"/>
+        <c:crossAx val="-2098935384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107779256"/>
+        <c:axId val="2128910696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,12 +2006,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107773720"/>
+        <c:crossAx val="-2065020744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107773720"/>
+        <c:axId val="-2065020744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107779256"/>
+        <c:crossAx val="2128910696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2069,7 +2071,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2181,8 +2186,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-60"/>
-        <c:axId val="2107735432"/>
-        <c:axId val="2107729736"/>
+        <c:axId val="-2068242760"/>
+        <c:axId val="-2071660232"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2236,9 +2241,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -2310,11 +2314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107718312"/>
-        <c:axId val="2107724264"/>
+        <c:axId val="-2101524664"/>
+        <c:axId val="-2146646616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107735432"/>
+        <c:axId val="-2068242760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2363,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107729736"/>
+        <c:crossAx val="-2071660232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2367,7 +2371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107729736"/>
+        <c:axId val="-2071660232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,6 +2393,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2405,12 +2410,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107735432"/>
+        <c:crossAx val="-2068242760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107724264"/>
+        <c:axId val="-2146646616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2446,6 +2451,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -2462,13 +2468,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107718312"/>
+        <c:crossAx val="-2101524664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2107718312"/>
+        <c:axId val="-2101524664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107724264"/>
+        <c:crossAx val="-2146646616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2495,6 +2501,7 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2654,11 +2661,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107692456"/>
-        <c:axId val="2107689432"/>
+        <c:axId val="2126381272"/>
+        <c:axId val="-2071771960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107692456"/>
+        <c:axId val="2126381272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2684,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107689432"/>
+        <c:crossAx val="-2071771960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2685,7 +2692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107689432"/>
+        <c:axId val="-2071771960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,6 +2727,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2736,7 +2744,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107692456"/>
+        <c:crossAx val="2126381272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2905,11 +2913,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107640600"/>
-        <c:axId val="2110112808"/>
+        <c:axId val="-2068610200"/>
+        <c:axId val="-2102327176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107640600"/>
+        <c:axId val="-2068610200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +2936,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110112808"/>
+        <c:crossAx val="-2102327176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2936,7 +2944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110112808"/>
+        <c:axId val="-2102327176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,6 +2966,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2974,7 +2983,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107640600"/>
+        <c:crossAx val="-2068610200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3127,11 +3136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2110153256"/>
-        <c:axId val="2110158712"/>
+        <c:axId val="2078421288"/>
+        <c:axId val="-2069716648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110153256"/>
+        <c:axId val="2078421288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3176,7 +3185,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110158712"/>
+        <c:crossAx val="-2069716648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3184,7 +3193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110158712"/>
+        <c:axId val="-2069716648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3252,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110153256"/>
+        <c:crossAx val="2078421288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3469,11 +3478,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2110195304"/>
-        <c:axId val="2110198184"/>
+        <c:axId val="-2071982984"/>
+        <c:axId val="-2067441016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2110195304"/>
+        <c:axId val="-2071982984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3492,7 +3501,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110198184"/>
+        <c:crossAx val="-2067441016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3500,7 +3509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110198184"/>
+        <c:axId val="-2067441016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3522,7 +3531,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3539,14 +3547,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110195304"/>
+        <c:crossAx val="-2071982984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3723,11 +3730,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2062459096"/>
-        <c:axId val="2062462104"/>
+        <c:axId val="2126811128"/>
+        <c:axId val="2108412888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2062459096"/>
+        <c:axId val="2126811128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3753,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062462104"/>
+        <c:crossAx val="2108412888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3754,7 +3761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2062462104"/>
+        <c:axId val="2108412888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3776,7 +3783,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3793,7 +3799,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2062459096"/>
+        <c:crossAx val="2126811128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4429,7 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -4439,16 +4445,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12">
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="H1" s="14" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="H1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="3:12">
       <c r="D2" t="s">
@@ -4620,7 +4626,7 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>9.8524570233256663E-3</v>
       </c>
@@ -4714,8 +4720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4725,16 +4731,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13">
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="H1" s="14" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="H1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="3:13">
       <c r="D2" t="s">
@@ -4786,18 +4792,18 @@
       <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <f>AVERAGE(D3:F3)</f>
         <v>11.574444444444444</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="H4" s="13">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="14">
         <f>AVERAGE(H3:J3)</f>
         <v>15.234823232323231</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="L4">
         <f>FTEST(D3:F3, H3:J3)</f>
         <v>0.55650960131908644</v>
@@ -4898,18 +4904,18 @@
       <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <f>AVERAGE(D9:F9)</f>
         <v>0.5936466202325299</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="H10" s="13">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="H10" s="14">
         <f>AVERAGE(H9:J9)</f>
         <v>1.2950618836921208</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="M10" s="8">
         <f>TTEST(D9:F9, H9:J9, 2,2)</f>
         <v>9.9547637344366384E-3</v>
@@ -4954,11 +4960,11 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="5" t="s">
         <v>32</v>
       </c>
@@ -5034,32 +5040,32 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <f>AVERAGE(D20:F20)</f>
         <v>18.944444444444443</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17">
         <v>12.26212121212121</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="25" spans="1:14">
       <c r="D25">
@@ -5216,16 +5222,16 @@
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="J2">
         <f>FTEST(B4:D4, F4:H4)</f>
         <v>0.56198947480186079</v>
@@ -5279,30 +5285,30 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <f>AVERAGE(B4:D4)</f>
         <v>18.944444444444443</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="F6" s="19">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="F6" s="20">
         <f>AVERAGE(F4:H4)</f>
         <v>12.26212121212121</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="5"/>
@@ -5369,16 +5375,16 @@
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
@@ -5424,18 +5430,18 @@
       <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <f>AVERAGE(B4:D4)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="F5" s="13">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="F5" s="14">
         <f>AVERAGE(F4:H4)</f>
         <v>11</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">

--- a/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
+++ b/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
@@ -1274,11 +1274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2070069832"/>
-        <c:axId val="2125358568"/>
+        <c:axId val="2119327064"/>
+        <c:axId val="2119720232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070069832"/>
+        <c:axId val="2119327064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1297,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125358568"/>
+        <c:crossAx val="2119720232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125358568"/>
+        <c:axId val="2119720232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1345,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070069832"/>
+        <c:crossAx val="2119327064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,11 +1549,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098868824"/>
-        <c:axId val="-2066327688"/>
+        <c:axId val="2119177512"/>
+        <c:axId val="2119225240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098868824"/>
+        <c:axId val="2119177512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1598,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066327688"/>
+        <c:crossAx val="2119225240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066327688"/>
+        <c:axId val="2119225240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1666,7 +1666,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098868824"/>
+        <c:crossAx val="2119177512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1795,8 +1795,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098935384"/>
-        <c:axId val="-2098187080"/>
+        <c:axId val="-2065526984"/>
+        <c:axId val="-2065478392"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1852,11 +1852,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2065020744"/>
-        <c:axId val="2128910696"/>
+        <c:axId val="-2065866264"/>
+        <c:axId val="-2065948568"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="-2098935384"/>
+        <c:axId val="-2065526984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1894,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098187080"/>
+        <c:crossAx val="-2065478392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1902,7 +1902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098187080"/>
+        <c:axId val="-2065478392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,13 +1954,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098935384"/>
+        <c:crossAx val="-2065526984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128910696"/>
+        <c:axId val="-2065948568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,12 +2006,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065020744"/>
+        <c:crossAx val="-2065866264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2065020744"/>
+        <c:axId val="-2065866264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +2020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128910696"/>
+        <c:crossAx val="-2065948568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2186,8 +2186,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-60"/>
-        <c:axId val="-2068242760"/>
-        <c:axId val="-2071660232"/>
+        <c:axId val="-2065606488"/>
+        <c:axId val="2129062568"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2314,11 +2314,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2101524664"/>
-        <c:axId val="-2146646616"/>
+        <c:axId val="-2065111832"/>
+        <c:axId val="-2142677128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2068242760"/>
+        <c:axId val="-2065606488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +2363,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071660232"/>
+        <c:crossAx val="2129062568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2371,7 +2371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071660232"/>
+        <c:axId val="2129062568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2410,12 +2410,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068242760"/>
+        <c:crossAx val="-2065606488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146646616"/>
+        <c:axId val="-2142677128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2468,13 +2468,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101524664"/>
+        <c:crossAx val="-2065111832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2101524664"/>
+        <c:axId val="-2065111832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,7 +2483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146646616"/>
+        <c:crossAx val="-2142677128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2661,11 +2661,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126381272"/>
-        <c:axId val="-2071771960"/>
+        <c:axId val="-2127546600"/>
+        <c:axId val="-2127543592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126381272"/>
+        <c:axId val="-2127546600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2684,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071771960"/>
+        <c:crossAx val="-2127543592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2692,7 +2692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071771960"/>
+        <c:axId val="-2127543592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2744,7 +2744,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126381272"/>
+        <c:crossAx val="-2127546600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2913,11 +2913,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2068610200"/>
-        <c:axId val="-2102327176"/>
+        <c:axId val="-2065612936"/>
+        <c:axId val="-2066116328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2068610200"/>
+        <c:axId val="-2065612936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,7 +2936,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102327176"/>
+        <c:crossAx val="-2066116328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2944,7 +2944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102327176"/>
+        <c:axId val="-2066116328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +2983,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2068610200"/>
+        <c:crossAx val="-2065612936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3136,11 +3136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2078421288"/>
-        <c:axId val="-2069716648"/>
+        <c:axId val="-2098897592"/>
+        <c:axId val="-2143278680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2078421288"/>
+        <c:axId val="-2098897592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,7 +3185,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069716648"/>
+        <c:crossAx val="-2143278680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3193,7 +3193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069716648"/>
+        <c:axId val="-2143278680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +3252,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078421288"/>
+        <c:crossAx val="-2098897592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3478,11 +3478,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2071982984"/>
-        <c:axId val="-2067441016"/>
+        <c:axId val="-2065605288"/>
+        <c:axId val="-2065506952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2071982984"/>
+        <c:axId val="-2065605288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,7 +3501,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067441016"/>
+        <c:crossAx val="-2065506952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3509,7 +3509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067441016"/>
+        <c:axId val="-2065506952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,6 +3531,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3547,13 +3548,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071982984"/>
+        <c:crossAx val="-2065605288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3730,11 +3732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2126811128"/>
-        <c:axId val="2108412888"/>
+        <c:axId val="-2069347480"/>
+        <c:axId val="-2071748712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2126811128"/>
+        <c:axId val="-2069347480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +3755,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108412888"/>
+        <c:crossAx val="-2071748712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3761,7 +3763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108412888"/>
+        <c:axId val="-2071748712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,6 +3785,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3799,7 +3802,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2126811128"/>
+        <c:crossAx val="-2069347480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3956,10 +3959,10 @@
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4435,7 +4438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -4720,8 +4723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5369,7 +5372,7 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A19:XFD20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
+++ b/literature/04.reseach-interface-comparative-experiments/実験分析入力実験.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11240" yWindow="0" windowWidth="14360" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="主観" sheetId="2" r:id="rId1"/>
@@ -1034,7 +1034,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0669178681431944"/>
+          <c:y val="0.0360123501159865"/>
+          <c:w val="0.835245988087106"/>
+          <c:h val="0.815412487339497"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1274,11 +1284,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119327064"/>
-        <c:axId val="2119720232"/>
+        <c:axId val="-2102822120"/>
+        <c:axId val="-2126799736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119327064"/>
+        <c:axId val="-2102822120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1307,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119720232"/>
+        <c:crossAx val="-2126799736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119720232"/>
+        <c:axId val="-2126799736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,17 +1328,24 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr sz="1600" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1600" b="0"/>
                   <a:t>SCORE</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.000127278610721606"/>
+              <c:y val="0.365700983435162"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1340,26 +1357,35 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400"/>
+              <a:defRPr sz="1200"/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119327064"/>
+        <c:crossAx val="-2102822120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.891194285645801"/>
+          <c:y val="0.386753683797824"/>
+          <c:w val="0.10880569425773"/>
+          <c:h val="0.226492483894059"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400"/>
+            <a:defRPr sz="1200"/>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
         </a:p>
@@ -1549,11 +1575,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119177512"/>
-        <c:axId val="2119225240"/>
+        <c:axId val="-2128436456"/>
+        <c:axId val="-2142412104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2119177512"/>
+        <c:axId val="-2128436456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1624,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119225240"/>
+        <c:crossAx val="-2142412104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119225240"/>
+        <c:axId val="-2142412104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -1666,7 +1692,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119177512"/>
+        <c:crossAx val="-2128436456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1795,8 +1821,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2065526984"/>
-        <c:axId val="-2065478392"/>
+        <c:axId val="-2065401336"/>
+        <c:axId val="-2144785192"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1852,11 +1878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2065866264"/>
-        <c:axId val="-2065948568"/>
+        <c:axId val="-2128515816"/>
+        <c:axId val="-2128033464"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="-2065526984"/>
+        <c:axId val="-2065401336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1920,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065478392"/>
+        <c:crossAx val="-2144785192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1902,7 +1928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065478392"/>
+        <c:axId val="-2144785192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,13 +1980,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065526984"/>
+        <c:crossAx val="-2065401336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2065948568"/>
+        <c:axId val="-2128033464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,12 +2032,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065866264"/>
+        <c:crossAx val="-2128515816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2065866264"/>
+        <c:axId val="-2128515816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +2046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065948568"/>
+        <c:crossAx val="-2128033464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2186,8 +2212,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-60"/>
-        <c:axId val="-2065606488"/>
-        <c:axId val="2129062568"/>
+        <c:axId val="-2127011752"/>
+        <c:axId val="-2127182296"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2314,11 +2340,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2065111832"/>
-        <c:axId val="-2142677128"/>
+        <c:axId val="2119346568"/>
+        <c:axId val="-2103281944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065606488"/>
+        <c:axId val="-2127011752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +2389,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129062568"/>
+        <c:crossAx val="-2127182296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2371,7 +2397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129062568"/>
+        <c:axId val="-2127182296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2410,12 +2436,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065606488"/>
+        <c:crossAx val="-2127011752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142677128"/>
+        <c:axId val="-2103281944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2468,13 +2494,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065111832"/>
+        <c:crossAx val="2119346568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2065111832"/>
+        <c:axId val="2119346568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,7 +2509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142677128"/>
+        <c:crossAx val="-2103281944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2661,11 +2687,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127546600"/>
-        <c:axId val="-2127543592"/>
+        <c:axId val="2129961080"/>
+        <c:axId val="-2065394408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127546600"/>
+        <c:axId val="2129961080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2710,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127543592"/>
+        <c:crossAx val="-2065394408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2692,7 +2718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127543592"/>
+        <c:axId val="-2065394408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2744,7 +2770,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127546600"/>
+        <c:crossAx val="2129961080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2913,11 +2939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2065612936"/>
-        <c:axId val="-2066116328"/>
+        <c:axId val="-2098771256"/>
+        <c:axId val="-2125789928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065612936"/>
+        <c:axId val="-2098771256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,7 +2962,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066116328"/>
+        <c:crossAx val="-2125789928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2944,7 +2970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066116328"/>
+        <c:axId val="-2125789928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +3009,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065612936"/>
+        <c:crossAx val="-2098771256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3136,11 +3162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2098897592"/>
-        <c:axId val="-2143278680"/>
+        <c:axId val="-2128236344"/>
+        <c:axId val="2073357064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2098897592"/>
+        <c:axId val="-2128236344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,7 +3211,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143278680"/>
+        <c:crossAx val="2073357064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3193,7 +3219,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143278680"/>
+        <c:axId val="2073357064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3252,7 +3278,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098897592"/>
+        <c:crossAx val="-2128236344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3478,11 +3504,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2065605288"/>
-        <c:axId val="-2065506952"/>
+        <c:axId val="2127377496"/>
+        <c:axId val="-2141991464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2065605288"/>
+        <c:axId val="2127377496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,7 +3527,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065506952"/>
+        <c:crossAx val="-2141991464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3509,7 +3535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065506952"/>
+        <c:axId val="-2141991464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3531,7 +3557,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3548,14 +3573,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065605288"/>
+        <c:crossAx val="2127377496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3732,11 +3756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2069347480"/>
-        <c:axId val="-2071748712"/>
+        <c:axId val="-2100287768"/>
+        <c:axId val="-2100285480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069347480"/>
+        <c:axId val="-2100287768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3755,7 +3779,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071748712"/>
+        <c:crossAx val="-2100285480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3763,7 +3787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071748712"/>
+        <c:axId val="-2100285480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,7 +3826,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069347480"/>
+        <c:crossAx val="-2100287768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3828,15 +3852,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4438,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4723,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5218,7 +5242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
